--- a/public/sample/sample_stk19.xlsx
+++ b/public/sample/sample_stk19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F97EAA-E979-45A0-967E-2D37C44AC1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{391D20AA-9FD3-4779-B5CD-AB9F3829DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21585" windowHeight="15435" xr2:uid="{14012FE4-D75A-44B1-AAFF-4E08A3E513AC}"/>
+    <workbookView xWindow="7860" yWindow="4590" windowWidth="21585" windowHeight="15435" xr2:uid="{14012FE4-D75A-44B1-AAFF-4E08A3E513AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>* 매장코드 / 상품코드 / 수량 항목은 6행에 적힌 내용으로 일괄등록됩니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>* (*)는 필수입력항목입니다. / * 6행부터의 예시를 삭제하고 입력해주세요.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -76,6 +72,18 @@
   </si>
   <si>
     <t>F224WLS01CT9OXS</t>
+  </si>
+  <si>
+    <t>* 창고코드 / 매장코드 / 상품코드 / 수량 항목은 6행에 적힌 내용으로 일괄등록됩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고코드(*)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -130,25 +138,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -168,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,9 +171,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -504,39 +496,39 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -550,56 +542,71 @@
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
     </row>
